--- a/平成31年度/シースリーカップ/c3cup パンフ表紙.xlsx
+++ b/平成31年度/シースリーカップ/c3cup パンフ表紙.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>栃尾ウィザーズ保護者会</t>
     <rPh sb="0" eb="2">
@@ -509,6 +509,29 @@
     <rPh sb="4" eb="5">
       <t>テン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟県新潟市南区白根東町1-2-44</t>
+    <rPh sb="0" eb="3">
+      <t>ニイガタケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニイガタシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミナミク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シロネ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒガシチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>℡025-372-1118</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1646,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B48:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1760,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:L55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1964,10 +1987,10 @@
     </row>
     <row r="48" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E48" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="18.75" x14ac:dyDescent="0.15">
